--- a/evaluation/results.xlsx
+++ b/evaluation/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias\Desktop\Projekte\KeYPR\evaluation\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias\Desktop\Projekte\KeYPR\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC21F2D1-1227-4ED7-9482-3A474E32966F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1BE3FB1-A740-4C35-9211-3176A7C9A1F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17400" windowHeight="6345" tabRatio="700" firstSheet="3" activeTab="11" xr2:uid="{0BE6E02B-D41E-45B2-A867-553182C91EBA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17400" windowHeight="6345" tabRatio="700" firstSheet="3" activeTab="12" xr2:uid="{0BE6E02B-D41E-45B2-A867-553182C91EBA}"/>
   </bookViews>
   <sheets>
     <sheet name="RawNodes" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,11 @@
     <sheet name="QueryTime" sheetId="11" r:id="rId10"/>
     <sheet name="OptimizationNodes" sheetId="12" r:id="rId11"/>
     <sheet name="OptimizationTime" sheetId="14" r:id="rId12"/>
+    <sheet name="NodesAppendix" sheetId="15" r:id="rId13"/>
+    <sheet name="TimeAppendix" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9814" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9861" uniqueCount="177">
   <si>
     <t xml:space="preserve"> List_Insert_G__3273_</t>
   </si>
@@ -565,6 +568,12 @@
   <si>
     <t>Query strategy is exhaustive for all entries and locals are always encoded.</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Ordered_SortImpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Set_Insert</t>
+  </si>
 </sst>
 </file>
 
@@ -607,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -637,6 +646,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -24929,7 +24939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8A77E0-F90B-4AC0-8523-4EDEA24ACB57}">
   <dimension ref="A1:EB25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="DH1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BL2" sqref="BL2"/>
     </sheetView>
   </sheetViews>
@@ -36079,8 +36089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4605F9A7-6131-411C-B4BD-64F6E42381C9}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36618,6 +36628,1213 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0644A6B-FCEE-4483-BBEC-B22EBCD5590E}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2">
+        <f>SUM(RawNodes!B3:F3)</f>
+        <v>2400</v>
+      </c>
+      <c r="C2">
+        <f>SUM(RawNodes!G3:N3)</f>
+        <v>1418</v>
+      </c>
+      <c r="D2">
+        <f>SUM(RawNodes!O3:X3)</f>
+        <v>10608</v>
+      </c>
+      <c r="E2">
+        <f>SUM(RawNodes!Y3:AF3)</f>
+        <v>2871</v>
+      </c>
+      <c r="F2">
+        <f>SUM(RawNodes!AG3:AX3)</f>
+        <v>10824</v>
+      </c>
+      <c r="G2">
+        <f>SUM(RawNodes!AY3:BJ3)</f>
+        <v>10169</v>
+      </c>
+      <c r="H2">
+        <f>SUM(RawNodes!BL3:EA3)</f>
+        <v>21047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3">
+        <f>SUM(RawNodes!B5:F5)</f>
+        <v>2400</v>
+      </c>
+      <c r="C3">
+        <f>SUM(RawNodes!G5:N5)</f>
+        <v>1418</v>
+      </c>
+      <c r="D3">
+        <f>SUM(RawNodes!O5:X5)</f>
+        <v>9430</v>
+      </c>
+      <c r="E3">
+        <f>SUM(RawNodes!Y5:AF5)</f>
+        <v>2871</v>
+      </c>
+      <c r="F3">
+        <f>SUM(RawNodes!AG5:AX5)</f>
+        <v>20172</v>
+      </c>
+      <c r="G3">
+        <f>SUM(RawNodes!AY5:BJ5)</f>
+        <v>13835</v>
+      </c>
+      <c r="H3">
+        <f>SUM(RawNodes!BL5:EA5)</f>
+        <v>24688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4">
+        <f>SUM(RawNodes!B7:F7)</f>
+        <v>2400</v>
+      </c>
+      <c r="C4">
+        <f>SUM(RawNodes!G7:N7)</f>
+        <v>1418</v>
+      </c>
+      <c r="D4">
+        <f>SUM(RawNodes!O7:X7)</f>
+        <v>13802</v>
+      </c>
+      <c r="E4">
+        <f>SUM(RawNodes!Y7:AF7)</f>
+        <v>2871</v>
+      </c>
+      <c r="F4">
+        <f>SUM(RawNodes!AG7:AX7)</f>
+        <v>20160</v>
+      </c>
+      <c r="G4">
+        <f>SUM(RawNodes!AY7:BJ7)</f>
+        <v>12687</v>
+      </c>
+      <c r="H4">
+        <f>SUM(RawNodes!BL7:EA7)</f>
+        <v>28501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5">
+        <f>SUM(RawNodes!B9:F9)</f>
+        <v>2400</v>
+      </c>
+      <c r="C5">
+        <f>SUM(RawNodes!G9:N9)</f>
+        <v>1418</v>
+      </c>
+      <c r="D5">
+        <f>SUM(RawNodes!O9:X9)</f>
+        <v>10608</v>
+      </c>
+      <c r="E5">
+        <f>SUM(RawNodes!Y9:AF9)</f>
+        <v>2871</v>
+      </c>
+      <c r="F5">
+        <f>SUM(RawNodes!AG9:AX9)</f>
+        <v>10824</v>
+      </c>
+      <c r="G5">
+        <f>SUM(RawNodes!AY9:BJ9)</f>
+        <v>10169</v>
+      </c>
+      <c r="H5">
+        <f>SUM(RawNodes!BL9:EA9)</f>
+        <v>23366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6">
+        <f>SUM(RawNodes!B11:F11)</f>
+        <v>2400</v>
+      </c>
+      <c r="C6">
+        <f>SUM(RawNodes!G11:N11)</f>
+        <v>1418</v>
+      </c>
+      <c r="D6">
+        <f>SUM(RawNodes!O11:X11)</f>
+        <v>9652</v>
+      </c>
+      <c r="E6">
+        <f>SUM(RawNodes!Y11:AF11)</f>
+        <v>2871</v>
+      </c>
+      <c r="F6">
+        <f>SUM(RawNodes!AG11:AX11)</f>
+        <v>20172</v>
+      </c>
+      <c r="G6">
+        <f>SUM(RawNodes!AY11:BJ11)</f>
+        <v>14043</v>
+      </c>
+      <c r="H6">
+        <f>SUM(RawNodes!BL11:EA11)</f>
+        <v>35884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7">
+        <f>SUM(RawNodes!B13:F13)</f>
+        <v>2400</v>
+      </c>
+      <c r="C7">
+        <f>SUM(RawNodes!G13:N13)</f>
+        <v>1418</v>
+      </c>
+      <c r="D7">
+        <f>SUM(RawNodes!O13:X13)</f>
+        <v>14347</v>
+      </c>
+      <c r="E7">
+        <f>SUM(RawNodes!Y13:AF13)</f>
+        <v>2871</v>
+      </c>
+      <c r="F7">
+        <f>SUM(RawNodes!AG13:AX13)</f>
+        <v>20160</v>
+      </c>
+      <c r="G7">
+        <f>SUM(RawNodes!AY13:BJ13)</f>
+        <v>12687</v>
+      </c>
+      <c r="H7">
+        <f>SUM(RawNodes!BL13:EA13)</f>
+        <v>54907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8">
+        <f>SUM(RawNodes!B15:F15)</f>
+        <v>9600</v>
+      </c>
+      <c r="C8">
+        <f>SUM(RawNodes!G15:N15)</f>
+        <v>2836</v>
+      </c>
+      <c r="D8">
+        <f>SUM(RawNodes!O15:X15)</f>
+        <v>9010</v>
+      </c>
+      <c r="E8">
+        <f>SUM(RawNodes!Y15:AF15)</f>
+        <v>5742</v>
+      </c>
+      <c r="F8">
+        <f>SUM(RawNodes!AG15:AX15)</f>
+        <v>20298</v>
+      </c>
+      <c r="G8">
+        <f>SUM(RawNodes!AY15:BJ15)</f>
+        <v>20094</v>
+      </c>
+      <c r="H8">
+        <f>SUM(RawNodes!BL15:EA15)</f>
+        <v>16114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9">
+        <f>SUM(RawNodes!B17:F17)</f>
+        <v>2400</v>
+      </c>
+      <c r="C9">
+        <f>SUM(RawNodes!G17:N17)</f>
+        <v>1418</v>
+      </c>
+      <c r="D9">
+        <f>SUM(RawNodes!O17:X17)</f>
+        <v>4504</v>
+      </c>
+      <c r="E9">
+        <f>SUM(RawNodes!Y17:AF17)</f>
+        <v>2871</v>
+      </c>
+      <c r="F9">
+        <f>SUM(RawNodes!AG17:AX17)</f>
+        <v>10149</v>
+      </c>
+      <c r="G9">
+        <f>SUM(RawNodes!AY17:BJ17)</f>
+        <v>10047</v>
+      </c>
+      <c r="H9">
+        <f>SUM(RawNodes!BL17:EA17)</f>
+        <v>16114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10">
+        <f>SUM(RawNodes!B18:F18)</f>
+        <v>2211</v>
+      </c>
+      <c r="C10">
+        <f>SUM(RawNodes!G18:N18)</f>
+        <v>1321</v>
+      </c>
+      <c r="D10">
+        <f>SUM(RawNodes!O18:X18)</f>
+        <v>11210</v>
+      </c>
+      <c r="E10">
+        <f>SUM(RawNodes!Y18:AF18)</f>
+        <v>2501</v>
+      </c>
+      <c r="F10">
+        <f>SUM(RawNodes!AG18:AX18)</f>
+        <v>16984</v>
+      </c>
+      <c r="G10">
+        <f>SUM(RawNodes!AY18:BJ18)</f>
+        <v>6500</v>
+      </c>
+      <c r="H10">
+        <f>SUM(RawNodes!BL18:EA18)</f>
+        <v>12301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11">
+        <f>SUM(RawNodes!B19:F19)</f>
+        <v>2211</v>
+      </c>
+      <c r="C11">
+        <f>SUM(RawNodes!G19:N19)</f>
+        <v>1321</v>
+      </c>
+      <c r="D11">
+        <f>SUM(RawNodes!O19:X19)</f>
+        <v>10251</v>
+      </c>
+      <c r="E11">
+        <f>SUM(RawNodes!Y19:AF19)</f>
+        <v>2501</v>
+      </c>
+      <c r="F11">
+        <f>SUM(RawNodes!AG19:AX19)</f>
+        <v>16971</v>
+      </c>
+      <c r="G11">
+        <f>SUM(RawNodes!AY19:BJ19)</f>
+        <v>6420</v>
+      </c>
+      <c r="H11">
+        <f>SUM(RawNodes!BL19:EA19)</f>
+        <v>13173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12">
+        <f>SUM(RawNodes!B20:F20)</f>
+        <v>2211</v>
+      </c>
+      <c r="C12">
+        <f>SUM(RawNodes!G20:N20)</f>
+        <v>1321</v>
+      </c>
+      <c r="D12">
+        <f>SUM(RawNodes!O20:X20)</f>
+        <v>11116</v>
+      </c>
+      <c r="E12">
+        <f>SUM(RawNodes!Y20:AF20)</f>
+        <v>2501</v>
+      </c>
+      <c r="F12">
+        <f>SUM(RawNodes!AG20:AX20)</f>
+        <v>16836</v>
+      </c>
+      <c r="G12">
+        <f>SUM(RawNodes!AY20:BJ20)</f>
+        <v>7115</v>
+      </c>
+      <c r="H12">
+        <f>SUM(RawNodes!BL20:EA20)</f>
+        <v>20053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13">
+        <f>SUM(RawNodes!B21:F21)</f>
+        <v>2211</v>
+      </c>
+      <c r="C13">
+        <f>SUM(RawNodes!G21:N21)</f>
+        <v>1321</v>
+      </c>
+      <c r="D13">
+        <f>SUM(RawNodes!O21:X21)</f>
+        <v>11210</v>
+      </c>
+      <c r="E13">
+        <f>SUM(RawNodes!Y21:AF21)</f>
+        <v>2501</v>
+      </c>
+      <c r="F13">
+        <f>SUM(RawNodes!AG21:AX21)</f>
+        <v>16984</v>
+      </c>
+      <c r="G13">
+        <f>SUM(RawNodes!AY21:BJ21)</f>
+        <v>6500</v>
+      </c>
+      <c r="H13">
+        <f>SUM(RawNodes!BL21:EA21)</f>
+        <v>12901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14">
+        <f>SUM(RawNodes!B22:F22)</f>
+        <v>2211</v>
+      </c>
+      <c r="C14">
+        <f>SUM(RawNodes!G22:N22)</f>
+        <v>1321</v>
+      </c>
+      <c r="D14">
+        <f>SUM(RawNodes!O22:X22)</f>
+        <v>10299</v>
+      </c>
+      <c r="E14">
+        <f>SUM(RawNodes!Y22:AF22)</f>
+        <v>2501</v>
+      </c>
+      <c r="F14">
+        <f>SUM(RawNodes!AG22:AX22)</f>
+        <v>16971</v>
+      </c>
+      <c r="G14">
+        <f>SUM(RawNodes!AY22:BJ22)</f>
+        <v>6420</v>
+      </c>
+      <c r="H14">
+        <f>SUM(RawNodes!BL22:EA22)</f>
+        <v>14695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15">
+        <f>SUM(RawNodes!B23:F23)</f>
+        <v>2211</v>
+      </c>
+      <c r="C15">
+        <f>SUM(RawNodes!G23:N23)</f>
+        <v>1321</v>
+      </c>
+      <c r="D15">
+        <f>SUM(RawNodes!O23:X23)</f>
+        <v>10881</v>
+      </c>
+      <c r="E15">
+        <f>SUM(RawNodes!Y23:AF23)</f>
+        <v>2501</v>
+      </c>
+      <c r="F15">
+        <f>SUM(RawNodes!AG23:AX23)</f>
+        <v>16836</v>
+      </c>
+      <c r="G15">
+        <f>SUM(RawNodes!AY23:BJ23)</f>
+        <v>7115</v>
+      </c>
+      <c r="H15">
+        <f>SUM(RawNodes!BL23:EA23)</f>
+        <v>23005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16">
+        <f>SUM(RawNodes!B24:F24)</f>
+        <v>8844</v>
+      </c>
+      <c r="C16">
+        <f>SUM(RawNodes!G24:N24)</f>
+        <v>2642</v>
+      </c>
+      <c r="D16">
+        <f>SUM(RawNodes!O24:X24)</f>
+        <v>4036</v>
+      </c>
+      <c r="E16">
+        <f>SUM(RawNodes!Y24:AF24)</f>
+        <v>5002</v>
+      </c>
+      <c r="F16">
+        <f>SUM(RawNodes!AG24:AX24)</f>
+        <v>33062</v>
+      </c>
+      <c r="G16">
+        <f>SUM(RawNodes!AY24:BJ24)</f>
+        <v>13226</v>
+      </c>
+      <c r="H16">
+        <f>SUM(RawNodes!BL24:EA24)</f>
+        <v>9336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17">
+        <f>SUM(RawNodes!B25:F25)</f>
+        <v>2211</v>
+      </c>
+      <c r="C17">
+        <f>SUM(RawNodes!G25:N25)</f>
+        <v>1321</v>
+      </c>
+      <c r="D17">
+        <f>SUM(RawNodes!O25:X25)</f>
+        <v>2018</v>
+      </c>
+      <c r="E17">
+        <f>SUM(RawNodes!Y25:AF25)</f>
+        <v>2501</v>
+      </c>
+      <c r="F17">
+        <f>SUM(RawNodes!AG25:AX25)</f>
+        <v>16531</v>
+      </c>
+      <c r="G17">
+        <f>SUM(RawNodes!AY25:BJ25)</f>
+        <v>6613</v>
+      </c>
+      <c r="H17">
+        <f>SUM(RawNodes!BL25:EA25)</f>
+        <v>9336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D3D861-B58C-47A7-951B-85685320B312}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="11">
+        <f>SUM(RawTime!B3:F3)/1000</f>
+        <v>4.3819999999999997</v>
+      </c>
+      <c r="C2" s="11">
+        <f>SUM(RawTime!G3:N3)/1000</f>
+        <v>2.4529999999999998</v>
+      </c>
+      <c r="D2" s="11">
+        <f>SUM(RawTime!O3:X3)/1000</f>
+        <v>47.593000000000004</v>
+      </c>
+      <c r="E2" s="11">
+        <f>SUM(RawTime!Y3:AF3)/1000</f>
+        <v>3.4780000000000002</v>
+      </c>
+      <c r="F2" s="11">
+        <f>SUM(RawTime!AG3:AX3)/1000</f>
+        <v>16.091999999999999</v>
+      </c>
+      <c r="G2" s="11">
+        <f>SUM(RawTime!AY3:BJ3)/1000</f>
+        <v>28.440999999999999</v>
+      </c>
+      <c r="H2" s="11">
+        <f>SUM(RawTime!BL3:EA3)/1000</f>
+        <v>135.15899999999999</v>
+      </c>
+      <c r="I2" s="11">
+        <f>Time!I3/1000</f>
+        <v>8.4969999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="11">
+        <f>SUM(RawTime!B5:F5)/1000</f>
+        <v>5.69</v>
+      </c>
+      <c r="C3" s="11">
+        <f>SUM(RawTime!G5:N5)/1000</f>
+        <v>1.452</v>
+      </c>
+      <c r="D3" s="11">
+        <f>SUM(RawTime!O5:X5)/1000</f>
+        <v>301.25200000000001</v>
+      </c>
+      <c r="E3" s="11">
+        <f>SUM(RawTime!Y5:AF5)/1000</f>
+        <v>3.49</v>
+      </c>
+      <c r="F3" s="11">
+        <f>SUM(RawTime!AG5:AX5)/1000</f>
+        <v>31.33</v>
+      </c>
+      <c r="G3" s="11">
+        <f>SUM(RawTime!AY5:BJ5)/1000</f>
+        <v>315.48599999999999</v>
+      </c>
+      <c r="H3" s="11">
+        <f>SUM(RawTime!BL5:EA5)/1000</f>
+        <v>136.51599999999999</v>
+      </c>
+      <c r="I3" s="11">
+        <f>Time!I5/1000</f>
+        <v>11.638999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="11">
+        <f>SUM(RawTime!B7:F7)/1000</f>
+        <v>4.2069999999999999</v>
+      </c>
+      <c r="C4" s="11">
+        <f>SUM(RawTime!G7:N7)/1000</f>
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="D4" s="11">
+        <f>SUM(RawTime!O7:X7)/1000</f>
+        <v>70.066000000000003</v>
+      </c>
+      <c r="E4" s="11">
+        <f>SUM(RawTime!Y7:AF7)/1000</f>
+        <v>3.363</v>
+      </c>
+      <c r="F4" s="11">
+        <f>SUM(RawTime!AG7:AX7)/1000</f>
+        <v>27.757000000000001</v>
+      </c>
+      <c r="G4" s="11">
+        <f>SUM(RawTime!AY7:BJ7)/1000</f>
+        <v>32.369999999999997</v>
+      </c>
+      <c r="H4" s="11">
+        <f>SUM(RawTime!BL7:EA7)/1000</f>
+        <v>141.86099999999999</v>
+      </c>
+      <c r="I4" s="11">
+        <f>Time!I7/1000</f>
+        <v>8.8369999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="11">
+        <f>SUM(RawTime!B9:F9)/1000</f>
+        <v>4.2009999999999996</v>
+      </c>
+      <c r="C5" s="11">
+        <f>SUM(RawTime!G9:N9)/1000</f>
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="D5" s="11">
+        <f>SUM(RawTime!O9:X9)/1000</f>
+        <v>46.816000000000003</v>
+      </c>
+      <c r="E5" s="11">
+        <f>SUM(RawTime!Y9:AF9)/1000</f>
+        <v>3.3940000000000001</v>
+      </c>
+      <c r="F5" s="11">
+        <f>SUM(RawTime!AG9:AX9)/1000</f>
+        <v>17.606999999999999</v>
+      </c>
+      <c r="G5" s="11">
+        <f>SUM(RawTime!AY9:BJ9)/1000</f>
+        <v>28.302</v>
+      </c>
+      <c r="H5" s="11">
+        <f>SUM(RawTime!BL9:EA9)/1000</f>
+        <v>73.132000000000005</v>
+      </c>
+      <c r="I5" s="11">
+        <f>Time!I9/1000</f>
+        <v>10.638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="11">
+        <f>SUM(RawTime!B11:F11)/1000</f>
+        <v>6.9189999999999996</v>
+      </c>
+      <c r="C6" s="11">
+        <f>SUM(RawTime!G11:N11)/1000</f>
+        <v>1.359</v>
+      </c>
+      <c r="D6" s="11">
+        <f>SUM(RawTime!O11:X11)/1000</f>
+        <v>301.28500000000003</v>
+      </c>
+      <c r="E6" s="11">
+        <f>SUM(RawTime!Y11:AF11)/1000</f>
+        <v>3.472</v>
+      </c>
+      <c r="F6" s="11">
+        <f>SUM(RawTime!AG11:AX11)/1000</f>
+        <v>30.783999999999999</v>
+      </c>
+      <c r="G6" s="11">
+        <f>SUM(RawTime!AY11:BJ11)/1000</f>
+        <v>315.35700000000003</v>
+      </c>
+      <c r="H6" s="11">
+        <f>SUM(RawTime!BL11:EA11)/1000</f>
+        <v>90.227999999999994</v>
+      </c>
+      <c r="I6" s="11">
+        <f>Time!I11/1000</f>
+        <v>11.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="11">
+        <f>SUM(RawTime!B13:F13)/1000</f>
+        <v>4.22</v>
+      </c>
+      <c r="C7" s="11">
+        <f>SUM(RawTime!G13:N13)/1000</f>
+        <v>1.403</v>
+      </c>
+      <c r="D7" s="11">
+        <f>SUM(RawTime!O13:X13)/1000</f>
+        <v>69.134</v>
+      </c>
+      <c r="E7" s="11">
+        <f>SUM(RawTime!Y13:AF13)/1000</f>
+        <v>3.4279999999999999</v>
+      </c>
+      <c r="F7" s="11">
+        <f>SUM(RawTime!AG13:AX13)/1000</f>
+        <v>27.605</v>
+      </c>
+      <c r="G7" s="11">
+        <f>SUM(RawTime!AY13:BJ13)/1000</f>
+        <v>31.585000000000001</v>
+      </c>
+      <c r="H7" s="11">
+        <f>SUM(RawTime!BL13:EA13)/1000</f>
+        <v>126.988</v>
+      </c>
+      <c r="I7" s="11">
+        <f>Time!I13/1000</f>
+        <v>2.5150000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="11">
+        <f>SUM(RawTime!B15:F15)/1000</f>
+        <v>15.765000000000001</v>
+      </c>
+      <c r="C8" s="11">
+        <f>SUM(RawTime!G15:N15)/1000</f>
+        <v>2.589</v>
+      </c>
+      <c r="D8" s="11">
+        <f>SUM(RawTime!O15:X15)/1000</f>
+        <v>615.31799999999998</v>
+      </c>
+      <c r="E8" s="11">
+        <f>SUM(RawTime!Y15:AF15)/1000</f>
+        <v>6.1479999999999997</v>
+      </c>
+      <c r="F8" s="11">
+        <f>SUM(RawTime!AG15:AX15)/1000</f>
+        <v>23.494</v>
+      </c>
+      <c r="G8" s="11">
+        <f>SUM(RawTime!AY15:BJ15)/1000</f>
+        <v>52.78</v>
+      </c>
+      <c r="H8" s="11">
+        <f>SUM(RawTime!BL15:EA15)/1000</f>
+        <v>29.449000000000002</v>
+      </c>
+      <c r="I8" s="11">
+        <f>Time!I15/1000</f>
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="11">
+        <f>SUM(RawTime!B17:F17)/1000</f>
+        <v>4.1680000000000001</v>
+      </c>
+      <c r="C9" s="11">
+        <f>SUM(RawTime!G17:N17)/1000</f>
+        <v>1.258</v>
+      </c>
+      <c r="D9" s="11">
+        <f>SUM(RawTime!O17:X17)/1000</f>
+        <v>302.096</v>
+      </c>
+      <c r="E9" s="11">
+        <f>SUM(RawTime!Y17:AF17)/1000</f>
+        <v>3.355</v>
+      </c>
+      <c r="F9" s="11">
+        <f>SUM(RawTime!AG17:AX17)/1000</f>
+        <v>12.798999999999999</v>
+      </c>
+      <c r="G9" s="11">
+        <f>SUM(RawTime!AY17:BJ17)/1000</f>
+        <v>28.588999999999999</v>
+      </c>
+      <c r="H9" s="11">
+        <f>SUM(RawTime!BL17:EA17)/1000</f>
+        <v>29.335000000000001</v>
+      </c>
+      <c r="I9" s="11">
+        <f>Time!I17/1000</f>
+        <v>4.5179999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="11">
+        <f>SUM(RawTime!B18:F18)/1000</f>
+        <v>2.7970000000000002</v>
+      </c>
+      <c r="C10" s="11">
+        <f>SUM(RawTime!G18:N18)/1000</f>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D10" s="11">
+        <f>SUM(RawTime!O18:X18)/1000</f>
+        <v>71.650000000000006</v>
+      </c>
+      <c r="E10" s="11">
+        <f>SUM(RawTime!Y18:AF18)/1000</f>
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="F10" s="11">
+        <f>SUM(RawTime!AG18:AX18)/1000</f>
+        <v>17.34</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM(RawTime!AY18:BJ18)/1000</f>
+        <v>7.444</v>
+      </c>
+      <c r="H10" s="11">
+        <f>SUM(RawTime!BL18:EA18)/1000</f>
+        <v>23.37</v>
+      </c>
+      <c r="I10" s="11">
+        <f>Time!I18/1000</f>
+        <v>25.695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="11">
+        <f>SUM(RawTime!B19:F19)/1000</f>
+        <v>2.4430000000000001</v>
+      </c>
+      <c r="C11" s="11">
+        <f>SUM(RawTime!G19:N19)/1000</f>
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="D11" s="11">
+        <f>SUM(RawTime!O19:X19)/1000</f>
+        <v>54.064999999999998</v>
+      </c>
+      <c r="E11" s="11">
+        <f>SUM(RawTime!Y19:AF19)/1000</f>
+        <v>2.3210000000000002</v>
+      </c>
+      <c r="F11" s="11">
+        <f>SUM(RawTime!AG19:AX19)/1000</f>
+        <v>17.135999999999999</v>
+      </c>
+      <c r="G11" s="11">
+        <f>SUM(RawTime!AY19:BJ19)/1000</f>
+        <v>7.4109999999999996</v>
+      </c>
+      <c r="H11" s="11">
+        <f>SUM(RawTime!BL19:EA19)/1000</f>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="I11" s="11">
+        <f>Time!I19/1000</f>
+        <v>25.917000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="11">
+        <f>SUM(RawTime!B20:F20)/1000</f>
+        <v>2.371</v>
+      </c>
+      <c r="C12" s="11">
+        <f>SUM(RawTime!G20:N20)/1000</f>
+        <v>1.109</v>
+      </c>
+      <c r="D12" s="11">
+        <f>SUM(RawTime!O20:X20)/1000</f>
+        <v>314.43099999999998</v>
+      </c>
+      <c r="E12" s="11">
+        <f>SUM(RawTime!Y20:AF20)/1000</f>
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="F12" s="11">
+        <f>SUM(RawTime!AG20:AX20)/1000</f>
+        <v>16.469000000000001</v>
+      </c>
+      <c r="G12" s="11">
+        <f>SUM(RawTime!AY20:BJ20)/1000</f>
+        <v>7.867</v>
+      </c>
+      <c r="H12" s="11">
+        <f>SUM(RawTime!BL20:EA20)/1000</f>
+        <v>31.870999999999999</v>
+      </c>
+      <c r="I12" s="11">
+        <f>Time!I20/1000</f>
+        <v>31.673999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="11">
+        <f>SUM(RawTime!B21:F21)/1000</f>
+        <v>2.7370000000000001</v>
+      </c>
+      <c r="C13" s="11">
+        <f>SUM(RawTime!G21:N21)/1000</f>
+        <v>1.6240000000000001</v>
+      </c>
+      <c r="D13" s="11">
+        <f>SUM(RawTime!O21:X21)/1000</f>
+        <v>90.643000000000001</v>
+      </c>
+      <c r="E13" s="11">
+        <f>SUM(RawTime!Y21:AF21)/1000</f>
+        <v>2.5089999999999999</v>
+      </c>
+      <c r="F13" s="11">
+        <f>SUM(RawTime!AG21:AX21)/1000</f>
+        <v>19.741</v>
+      </c>
+      <c r="G13" s="11">
+        <f>SUM(RawTime!AY21:BJ21)/1000</f>
+        <v>8.5229999999999997</v>
+      </c>
+      <c r="H13" s="11">
+        <f>SUM(RawTime!BL21:EA21)/1000</f>
+        <v>27.763999999999999</v>
+      </c>
+      <c r="I13" s="11">
+        <f>Time!I21/1000</f>
+        <v>37.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="11">
+        <f>SUM(RawTime!B22:F22)/1000</f>
+        <v>2.8679999999999999</v>
+      </c>
+      <c r="C14" s="11">
+        <f>SUM(RawTime!G22:N22)/1000</f>
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="D14" s="11">
+        <f>SUM(RawTime!O22:X22)/1000</f>
+        <v>69.040000000000006</v>
+      </c>
+      <c r="E14" s="11">
+        <f>SUM(RawTime!Y22:AF22)/1000</f>
+        <v>2.9129999999999998</v>
+      </c>
+      <c r="F14" s="11">
+        <f>SUM(RawTime!AG22:AX22)/1000</f>
+        <v>21.305</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM(RawTime!AY22:BJ22)/1000</f>
+        <v>9.0079999999999991</v>
+      </c>
+      <c r="H14" s="11">
+        <f>SUM(RawTime!BL22:EA22)/1000</f>
+        <v>27.827000000000002</v>
+      </c>
+      <c r="I14" s="11">
+        <f>Time!I22/1000</f>
+        <v>36.695999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="11">
+        <f>SUM(RawTime!B23:F23)/1000</f>
+        <v>2.9289999999999998</v>
+      </c>
+      <c r="C15" s="11">
+        <f>SUM(RawTime!G23:N23)/1000</f>
+        <v>1.2809999999999999</v>
+      </c>
+      <c r="D15" s="11">
+        <f>SUM(RawTime!O23:X23)/1000</f>
+        <v>306.65600000000001</v>
+      </c>
+      <c r="E15" s="11">
+        <f>SUM(RawTime!Y23:AF23)/1000</f>
+        <v>2.9</v>
+      </c>
+      <c r="F15" s="11">
+        <f>SUM(RawTime!AG23:AX23)/1000</f>
+        <v>21.041</v>
+      </c>
+      <c r="G15" s="11">
+        <f>SUM(RawTime!AY23:BJ23)/1000</f>
+        <v>9.9719999999999995</v>
+      </c>
+      <c r="H15" s="11">
+        <f>SUM(RawTime!BL23:EA23)/1000</f>
+        <v>48.866</v>
+      </c>
+      <c r="I15" s="11">
+        <f>Time!I23/1000</f>
+        <v>33.942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="11">
+        <f>SUM(RawTime!B24:F24)/1000</f>
+        <v>14.279</v>
+      </c>
+      <c r="C16" s="11">
+        <f>SUM(RawTime!G24:N24)/1000</f>
+        <v>3.4249999999999998</v>
+      </c>
+      <c r="D16" s="11">
+        <f>SUM(RawTime!O24:X24)/1000</f>
+        <v>9.9160000000000004</v>
+      </c>
+      <c r="E16" s="11">
+        <f>SUM(RawTime!Y24:AF24)/1000</f>
+        <v>6.7050000000000001</v>
+      </c>
+      <c r="F16" s="11">
+        <f>SUM(RawTime!AG24:AX24)/1000</f>
+        <v>53.064</v>
+      </c>
+      <c r="G16" s="11">
+        <f>SUM(RawTime!AY24:BJ24)/1000</f>
+        <v>22.12</v>
+      </c>
+      <c r="H16" s="11">
+        <f>SUM(RawTime!BL24:EA24)/1000</f>
+        <v>19.343</v>
+      </c>
+      <c r="I16" s="11">
+        <f>Time!I24/1000</f>
+        <v>58.485999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="11">
+        <f>SUM(RawTime!B25:F25)/1000</f>
+        <v>3.5390000000000001</v>
+      </c>
+      <c r="C17" s="11">
+        <f>SUM(RawTime!G25:N25)/1000</f>
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="D17" s="11">
+        <f>SUM(RawTime!O25:X25)/1000</f>
+        <v>4.7649999999999997</v>
+      </c>
+      <c r="E17" s="11">
+        <f>SUM(RawTime!Y25:AF25)/1000</f>
+        <v>3.42</v>
+      </c>
+      <c r="F17" s="11">
+        <f>SUM(RawTime!AG25:AX25)/1000</f>
+        <v>31.3</v>
+      </c>
+      <c r="G17" s="11">
+        <f>SUM(RawTime!AY25:BJ25)/1000</f>
+        <v>11.055</v>
+      </c>
+      <c r="H17" s="11">
+        <f>SUM(RawTime!BL25:EA25)/1000</f>
+        <v>23.088000000000001</v>
+      </c>
+      <c r="I17" s="11">
+        <f>Time!I25/1000</f>
+        <v>30.497</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2D04B8-F904-4F5C-8821-5820D41FB438}">
   <dimension ref="A1:EB25"/>
@@ -56553,7 +57770,7 @@
   <dimension ref="A2:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56762,7 +57979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F897DC-493C-40B6-B181-908471B3B365}">
   <dimension ref="A1:EB25"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
@@ -66728,7 +67945,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="A2" sqref="A2:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67562,7 +68779,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I1" sqref="I1:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
